--- a/Search Snippet/test_founder.xlsx
+++ b/Search Snippet/test_founder.xlsx
@@ -493,7 +493,13 @@
           <t>https://www.linkedin.com/in/benseidl/</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ben Seidl - Co-Founder &amp; CEO @ Autolane | LinkedIn
+https://www.linkedin.com › in › benseidl
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
